--- a/listaExpedidos.xlsx
+++ b/listaExpedidos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ManifestManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projeto\ManifestManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>ST</t>
   </si>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,8 +590,8 @@
       <c r="H2" s="9">
         <v>1484</v>
       </c>
-      <c r="I2" s="9">
-        <v>1484</v>
+      <c r="I2" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -634,8 +634,8 @@
       <c r="H3" s="9">
         <v>1425.65</v>
       </c>
-      <c r="I3" s="9">
-        <v>1425.65</v>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -678,8 +678,8 @@
       <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="I4" s="9">
-        <v>1</v>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -722,8 +722,8 @@
       <c r="H5" s="9">
         <v>5</v>
       </c>
-      <c r="I5" s="9">
-        <v>5</v>
+      <c r="I5" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -766,8 +766,8 @@
       <c r="H6" s="9">
         <v>1550</v>
       </c>
-      <c r="I6" s="9">
-        <v>1550</v>
+      <c r="I6" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
